--- a/数据整理/stocks/A股/深证主板/002237-恒邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002237-恒邦股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>9.03</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6552</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.29</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>9.03</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>75.31</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.17</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005295</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺德天富灵活配置混合</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>73.19</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7405</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -650,25 +710,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.99</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>9.21</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2818</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>005295</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>诺德天富灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.21</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>73.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002237-恒邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002237-恒邦股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2847</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5367</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002237-恒邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002237-恒邦股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7124</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4045</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002237-恒邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002237-恒邦股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002237-恒邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002237-恒邦股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.77</v>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5088</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.82</v>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.05</v>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1338,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.96</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002237-恒邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002237-恒邦股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1381,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,17 +1393,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.22</v>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7870</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1428,14 +1471,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.77</v>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4297</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1444,14 +1509,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.82</v>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3153</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1460,14 +1547,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.05</v>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1476,13 +1585,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.96</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002237-恒邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002237-恒邦股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8340</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.71</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.22</v>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4355</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.77</v>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4296</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1745,14 +1832,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="6">
@@ -1761,14 +1970,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1.05</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="7">
@@ -1777,13 +1986,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.96</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002237-恒邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002237-恒邦股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.85</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.22</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.77</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1.05</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.96</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.93</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8340</t>
+          <t>0.5275</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4355</t>
+          <t>0.3132</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -732,32 +749,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4296</t>
+          <t>0.2691</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -780,26 +797,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1551</t>
+          <t>0.1474</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -808,6 +825,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8340</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4355</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4296</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1091,7 +1316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1299,7 +1524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1545,7 +1770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1677,7 +1902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1847,7 +2072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002237-恒邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002237-恒邦股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.85</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.22</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.77</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1.05</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,204 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
         <v>1.96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6552</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,22 +870,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5275</t>
+          <t>0.5340</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -721,22 +908,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3132</t>
+          <t>0.2751</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -759,22 +946,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.59</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2691</t>
+          <t>0.2534</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -797,22 +984,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.59</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1474</t>
+          <t>0.2435</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -881,36 +1068,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.93</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8340</t>
+          <t>0.5275</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -919,36 +1106,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4355</t>
+          <t>0.3132</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -957,32 +1144,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4296</t>
+          <t>0.2691</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1005,26 +1192,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1551</t>
+          <t>0.1474</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1033,6 +1220,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8340</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4355</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4296</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1316,7 +1711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1524,7 +1919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1770,7 +2165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1902,7 +2297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2070,174 +2465,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6552</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2763</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005295</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺德天富灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>75.31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0256</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>